--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2050522.145626251</v>
+        <v>-2053109.656831828</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.9959300780487</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>72.18300436630702</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984357</v>
+        <v>90.46872094984359</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173972</v>
+        <v>11.79954938173974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7482774545173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978305</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.00395318768042</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>30.61235060870178</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>246.7053196171297</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>109.9926309457965</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>43.58645893187749</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>63.82941531820421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>220.1612211844838</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.29912036775834</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>120.4263234899695</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>97.98413062224144</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179326</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>54.63637568893263</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833826</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.707297924095</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>93.40444476188333</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.0656089242822</v>
+        <v>0.8253826161921722</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.7084378797711</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096054</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,10 +3010,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,7 +3244,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
         <v>262.2383508445512</v>
@@ -3253,7 +3253,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3472,7 +3472,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,7 +3481,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1932.009338588621</v>
+        <v>1586.400030347486</v>
       </c>
       <c r="C2" t="n">
-        <v>1932.009338588621</v>
+        <v>1217.437513407074</v>
       </c>
       <c r="D2" t="n">
-        <v>1573.74363998187</v>
+        <v>859.1718148003242</v>
       </c>
       <c r="E2" t="n">
-        <v>1187.955387383626</v>
+        <v>473.3835622020802</v>
       </c>
       <c r="F2" t="n">
-        <v>776.9694825940185</v>
+        <v>62.39765741247265</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7266088086083</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="H2" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.100139173031</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315701</v>
+        <v>549.672390631569</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529738</v>
+        <v>974.3476699529733</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.55018180827</v>
+        <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
         <v>1995.525025811714</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076071</v>
+        <v>2470.35445007607</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259758</v>
+        <v>2841.109377259757</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510238</v>
+        <v>3071.358140510237</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="S2" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.882870623638</v>
+        <v>3046.970745001105</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.338760007042</v>
+        <v>3046.970745001105</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.275872663472</v>
+        <v>2715.907857657534</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.275872663472</v>
+        <v>2363.13920238742</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.275872663472</v>
+        <v>2363.13920238742</v>
       </c>
       <c r="Y2" t="n">
-        <v>2145.13654068766</v>
+        <v>1972.999870411608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451369</v>
+        <v>931.3126773451371</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640099</v>
+        <v>756.8596480640101</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027586</v>
+        <v>607.9252384027589</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973032</v>
+        <v>448.6877833973033</v>
       </c>
       <c r="F3" t="n">
         <v>302.1532254241882</v>
@@ -4404,25 +4404,25 @@
         <v>74.31639416170481</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>147.6314117602528</v>
       </c>
       <c r="K3" t="n">
-        <v>505.1752167419863</v>
+        <v>371.464298498186</v>
       </c>
       <c r="L3" t="n">
-        <v>852.4686968101803</v>
+        <v>718.7577785663799</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.100675446836</v>
+        <v>1143.389757203036</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>1593.669125698063</v>
       </c>
       <c r="O3" t="n">
-        <v>2117.07790170106</v>
+        <v>1983.366983457259</v>
       </c>
       <c r="P3" t="n">
         <v>2410.51172267956</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.9750556002605</v>
+        <v>654.2142006667011</v>
       </c>
       <c r="C4" t="n">
-        <v>648.9750556002605</v>
+        <v>654.2142006667011</v>
       </c>
       <c r="D4" t="n">
-        <v>648.9750556002605</v>
+        <v>504.0975612543655</v>
       </c>
       <c r="E4" t="n">
-        <v>501.0619620178675</v>
+        <v>356.1844676719724</v>
       </c>
       <c r="F4" t="n">
-        <v>377.0738029729005</v>
+        <v>209.294520174062</v>
       </c>
       <c r="G4" t="n">
         <v>209.294520174062</v>
       </c>
       <c r="H4" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J4" t="n">
         <v>102.2230998038607</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589865</v>
+        <v>297.5053722589864</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712701</v>
+        <v>602.92588227127</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583198</v>
+        <v>935.3381100583197</v>
       </c>
       <c r="N4" t="n">
         <v>1265.280934468308</v>
@@ -4510,28 +4510,28 @@
         <v>1848.902273001215</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809515</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.6163853208</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239671</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.41609957403</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="V4" t="n">
-        <v>1051.41609957403</v>
+        <v>1574.061965575449</v>
       </c>
       <c r="W4" t="n">
-        <v>1051.41609957403</v>
+        <v>1284.644795538488</v>
       </c>
       <c r="X4" t="n">
-        <v>1051.41609957403</v>
+        <v>1056.655244640471</v>
       </c>
       <c r="Y4" t="n">
-        <v>830.6235204305002</v>
+        <v>835.8626654969408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670284</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.746163729872</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.480465123122</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E5" t="n">
-        <v>768.6922125248775</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>357.7063077352699</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734406</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,7 +4647,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481.6572696514548</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>425.0581006481905</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>274.9414612358547</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1883.267821894677</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1691.581937721503</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1469.815322291029</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1180.712455416673</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1180.712455416673</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>891.2952853797119</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X7" t="n">
-        <v>663.3057344816946</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.3057344816946</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1384.829779622645</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1384.829779622645</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686767</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.6939999491682</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4987,25 +4987,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1715.821339846051</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995249</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995249</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.1173538559948</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,46 +5045,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380883</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978457</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154526</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>274.8772357154526</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>274.8772357154526</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683281</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,7 +5364,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400713</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121644</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998287</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998287</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782928</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797715</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138412</v>
+        <v>1205.711814750799</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703111</v>
+        <v>984.9192356072687</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770321</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491252</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367895</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072718</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,16 +5841,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121641</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121641</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121641</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121641</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270439</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400718</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121649</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121649</v>
+        <v>261.8464821474273</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121649</v>
+        <v>261.8464821474273</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121649</v>
+        <v>261.8464821474273</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270448</v>
+        <v>94.65038286230741</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138416</v>
+        <v>983.3403484614395</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703115</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400697</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121629</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998271</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998271</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998271</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138399</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703095</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6914,43 +6914,43 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0615335795961</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>135.0615335795966</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113685</v>
+        <v>5.747744270113714</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.7379115854318</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0814842140681</v>
+        <v>48.08148421406815</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>132.4735349209975</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22708,16 +22708,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.67277056841392</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978307</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.1336901361476</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>42.31058222398245</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>125.1956044930047</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.32043864788563</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>6.726664722474129</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>55.21102825632903</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194255</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194169</v>
+        <v>139.4693302300317</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124978</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>66311.33934030095</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="J2" t="n">
         <v>80714.65996900057</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.297476341</v>
+        <v>1271067.29747634</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023788</v>
+        <v>54832.77288023841</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503628</v>
+        <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594286</v>
+        <v>32664.34410594301</v>
       </c>
       <c r="L3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363183</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14452.78963551401</v>
+        <v>14452.78963551402</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815714</v>
       </c>
-      <c r="D4" t="n">
-        <v>90964.01098815713</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,19 +26442,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989933</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="L4" t="n">
         <v>19767.8354798993</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989936</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989938</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
         <v>19767.8354798993</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1323100.776383596</v>
+        <v>-1323495.597324749</v>
       </c>
       <c r="C6" t="n">
-        <v>-171626.54744336</v>
+        <v>-171626.5474433605</v>
       </c>
       <c r="D6" t="n">
         <v>-116793.7745631221</v>
       </c>
       <c r="E6" t="n">
-        <v>-357597.3078790677</v>
+        <v>-357632.0458045034</v>
       </c>
       <c r="F6" t="n">
-        <v>-32184.84607171234</v>
+        <v>-32219.583997148</v>
       </c>
       <c r="G6" t="n">
-        <v>-32184.84607171231</v>
+        <v>-32219.58399714805</v>
       </c>
       <c r="H6" t="n">
-        <v>-32184.84607171235</v>
+        <v>-32219.58399714806</v>
       </c>
       <c r="I6" t="n">
-        <v>-32184.84607171232</v>
+        <v>-32219.58399714807</v>
       </c>
       <c r="J6" t="n">
-        <v>-236259.5045220752</v>
+        <v>-236294.2424475108</v>
       </c>
       <c r="K6" t="n">
-        <v>-73492.11845332925</v>
+        <v>-73492.11845332934</v>
       </c>
       <c r="L6" t="n">
-        <v>-40827.77434738638</v>
+        <v>-40827.77434738632</v>
       </c>
       <c r="M6" t="n">
-        <v>-125882.8022828982</v>
+        <v>-125882.8022828981</v>
       </c>
       <c r="N6" t="n">
-        <v>-40827.77434738637</v>
+        <v>-40827.77434738628</v>
       </c>
       <c r="O6" t="n">
-        <v>-40827.77434738639</v>
+        <v>-40827.77434738632</v>
       </c>
       <c r="P6" t="n">
-        <v>-60255.49234101812</v>
+        <v>-60255.49234101815</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203979</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303232</v>
+        <v>41.96894928303277</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="C4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638344</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638287</v>
+        <v>51.43073774638344</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638344</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>334.6605411623058</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>164.2164060363238</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>36.44133170077269</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>45.34569373816986</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>290.8536263024787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>166.0767174715698</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.5328598141789</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>69.34270184147243</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578955</v>
+        <v>4.212292467578954</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359298</v>
+        <v>43.13914023359297</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201797</v>
+        <v>357.5130578201795</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727969</v>
+        <v>535.8193979727968</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774664</v>
+        <v>664.7313435774663</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477736</v>
+        <v>739.6416997477735</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212824</v>
+        <v>751.6098757212823</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967942</v>
+        <v>709.723892496794</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034386</v>
+        <v>605.7329222034385</v>
       </c>
       <c r="Q2" t="n">
         <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165568</v>
+        <v>264.6004167165567</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495552</v>
+        <v>95.98761460495551</v>
       </c>
       <c r="T2" t="n">
         <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063163</v>
+        <v>0.3369833974063162</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,40 +31124,40 @@
         <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967535</v>
+        <v>77.59708346967534</v>
       </c>
       <c r="J3" t="n">
         <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621704</v>
+        <v>363.9352639621703</v>
       </c>
       <c r="L3" t="n">
-        <v>489.355874798252</v>
+        <v>489.3558747982519</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640947</v>
+        <v>571.0552244640946</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278062</v>
+        <v>586.1693570278061</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012074</v>
+        <v>536.2304442012073</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825128</v>
+        <v>430.3722063825127</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861696</v>
+        <v>287.6924225861695</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938503</v>
+        <v>139.9317596938502</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848087</v>
+        <v>41.86288515848086</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284283</v>
+        <v>9.084295504284279</v>
       </c>
       <c r="U3" t="n">
         <v>0.1482746817891886</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608676</v>
+        <v>1.889489387608675</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346624</v>
+        <v>16.79927837346623</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826819</v>
+        <v>56.82209903826818</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039334</v>
+        <v>133.5868997039333</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876261</v>
+        <v>219.524312487626</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086572</v>
+        <v>280.9155404086571</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957854</v>
+        <v>296.1860500957853</v>
       </c>
       <c r="N4" t="n">
         <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503609</v>
+        <v>267.0707363503608</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431438</v>
+        <v>228.5251528431437</v>
       </c>
       <c r="Q4" t="n">
         <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738643</v>
+        <v>84.95831373738642</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314391</v>
+        <v>32.9286468731439</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964339</v>
+        <v>8.073272837964337</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934934</v>
+        <v>176.4671532934933</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278163</v>
+        <v>315.7295469278162</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074792</v>
+        <v>428.9649286074791</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205009</v>
+        <v>509.2954665205008</v>
       </c>
       <c r="N2" t="n">
         <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751074</v>
+        <v>479.6256810751072</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481691</v>
+        <v>374.499926448169</v>
       </c>
       <c r="Q2" t="n">
         <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242464</v>
+        <v>49.01487890242458</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139404</v>
+        <v>86.09470136139402</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1553585674075</v>
+        <v>226.0938249878113</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183778</v>
+        <v>350.8014950183777</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420764</v>
+        <v>428.9211905420763</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444729</v>
+        <v>454.8276449444728</v>
       </c>
       <c r="O3" t="n">
-        <v>393.634199756763</v>
+        <v>393.6341997567629</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681825</v>
+        <v>431.4593325477791</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>147.710648500148</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726059</v>
+        <v>40.22771958726057</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617433</v>
+        <v>197.2548206617432</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689733</v>
+        <v>308.5055656689732</v>
       </c>
       <c r="M4" t="n">
-        <v>335.769927057626</v>
+        <v>335.7699270576259</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121092</v>
+        <v>333.275580212109</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644006</v>
+        <v>291.6558642644005</v>
       </c>
       <c r="P4" t="n">
         <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615574</v>
+        <v>72.05692719615571</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>274.2960242312443</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629504</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
